--- a/src/main/utils/python/ParsedJiraTestCases.xlsx
+++ b/src/main/utils/python/ParsedJiraTestCases.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
@@ -509,7 +509,6 @@
           <t>Sign on to APC from KPIM</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
           <t>Home (Welcone) page is displayed</t>
@@ -532,7 +531,6 @@
           <t>Sign on to APC from KPIM</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
           <t>Home (Welcone) page is displayed</t>
@@ -555,7 +553,6 @@
           <t>Sign on to APC from KPIM</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
           <t>Home (Welcone) page is displayed</t>
@@ -578,7 +575,6 @@
           <t>Sign on to APC from KPIM</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
           <t>Home (Welcone) page is displayed</t>
@@ -601,7 +597,6 @@
           <t>Sign on to APC from KPIM</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
           <t>Home (Welcone) page is displayed</t>
@@ -624,7 +619,6 @@
           <t>Sign on to APC from KPIM</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
           <t>Home (Welcone) page is displayed</t>
@@ -647,7 +641,6 @@
           <t>Sign on to APC from KPIM</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
           <t>Home (Welcone) page is displayed</t>
@@ -670,7 +663,6 @@
           <t>Sign on to APC from KPIM</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
           <t>Home (Welcone) page is displayed</t>
@@ -693,7 +685,6 @@
           <t>Sign on to APC from KPIM</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
           <t>Home (Welcone) page is displayed</t>
@@ -716,7 +707,6 @@
           <t>Sign on to APC from KPIM</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
           <t>Home (Welcone) page is displayed</t>
@@ -739,7 +729,6 @@
           <t>Sign on to APC from KPIM</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
           <t>Home (Welcone) page is displayed</t>
@@ -762,7 +751,6 @@
           <t>Sign on to APC from KPIM</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
           <t>Home (Welcone) page is displayed</t>
@@ -785,7 +773,6 @@
           <t>Sign on to APC from KPIM</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
           <t>Home (Welcone) page is displayed</t>
@@ -808,7 +795,6 @@
           <t>Sign on to APC from KPIM</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
           <t>Home (Welcone) page is displayed</t>
@@ -831,7 +817,6 @@
           <t>Sign on to APC from KPIM</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
           <t>Home (Welcone) page is displayed</t>
@@ -854,7 +839,6 @@
           <t>Sign on to APC from KPIM</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
           <t>Home (Welcone) page is displayed</t>
@@ -877,7 +861,6 @@
           <t>Sign on to APC from KPIM</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
           <t>Home (Welcone) page is displayed</t>
@@ -900,7 +883,6 @@
           <t>Sign on to APC from KPIM</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
           <t>Home (Welcone) page is displayed</t>
@@ -923,7 +905,6 @@
           <t>Sign on to APC from KPIM</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
           <t>Home (Welcone) page is displayed</t>
@@ -946,7 +927,6 @@
           <t>Sign on to APC from KPIM</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
           <t>Home (Welcone) page is displayed</t>
@@ -969,7 +949,6 @@
           <t>Sign on to APC from KPIM</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
           <t>Home (Welcone) page is displayed by ID</t>
@@ -992,7 +971,6 @@
           <t>Sign on to APC from KPIM</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
           <t>Home (Welcone) page is displayed</t>
@@ -1015,7 +993,6 @@
           <t>Sign on to APC from KPIM</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
           <t>Home (Welcone) page is displayed</t>
@@ -1038,7 +1015,6 @@
           <t>Sign on to APC from KPIM</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
           <t>Home (Welcone) page is displayed by ID</t>
@@ -1061,7 +1037,6 @@
           <t>Sign on to APC from KPIM</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
           <t>Home (Welcone) page is displayed</t>
@@ -1084,8 +1059,1285 @@
           <t>Sign on to APC from KPIM</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Key</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Summary</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Actions</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Expected Results</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>APC-3433</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 1</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>sample</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>APC-3433</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 1</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>APC-3433</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 1</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>APC-3434</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 2</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>APC-3434</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 2</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>APC-3434</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 2</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>APC-3435</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 3</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>APC-3435</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 3</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>APC-3435</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 3</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>APC-3436</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 4</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>APC-3436</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 4</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>APC-3436</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 4</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>APC-3437</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 5</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>APC-3437</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 5</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>APC-3437</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 5</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>APC-3438</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 6</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>APC-3438</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 6</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>APC-3438</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 6</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>APC-3439</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 7</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>APC-3439</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 7</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>APC-3439</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 7</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>APC-3440</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 8</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed by ID</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>APC-3440</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 8</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>APC-3440</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 8</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>APC-3441</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 9</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed by ID</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>APC-3441</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 9</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>APC-3441</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 9</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Key</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Summary</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Actions</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Expected Results</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>APC-3433</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 1</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>sample</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>APC-3433</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 1</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>APC-3433</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 1</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>APC-3434</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 2</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>APC-3434</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 2</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>APC-3434</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 2</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>APC-3435</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 3</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>APC-3435</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 3</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>APC-3435</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 3</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>APC-3436</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 4</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>APC-3436</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 4</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>APC-3436</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 4</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>APC-3437</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 5</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>APC-3437</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 5</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>APC-3437</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 5</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>APC-3438</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 6</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>APC-3438</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 6</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>APC-3438</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 6</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>APC-3439</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 7</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>APC-3439</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 7</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>APC-3439</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 7</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>APC-3440</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 8</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed by ID</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>APC-3440</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 8</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>APC-3440</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 8</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>APC-3441</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 9</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed by ID</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>APC-3441</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 9</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>APC-3441</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 9</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr">
         <is>
           <t>Home (Welcone) page is displayed</t>
         </is>

--- a/src/main/utils/python/ParsedJiraTestCases.xlsx
+++ b/src/main/utils/python/ParsedJiraTestCases.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E84"/>
+  <dimension ref="A1:E168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
@@ -1761,7 +1761,6 @@
           <t>Sign on to APC from KPIM</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
           <t>Home (Welcone) page is displayed</t>
@@ -1784,7 +1783,6 @@
           <t>Sign on to APC from KPIM</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
           <t>Home (Welcone) page is displayed</t>
@@ -1807,7 +1805,6 @@
           <t>Sign on to APC from KPIM</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
           <t>Home (Welcone) page is displayed</t>
@@ -1830,7 +1827,6 @@
           <t>Sign on to APC from KPIM</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
           <t>Home (Welcone) page is displayed</t>
@@ -1853,7 +1849,6 @@
           <t>Sign on to APC from KPIM</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
           <t>Home (Welcone) page is displayed</t>
@@ -1876,7 +1871,6 @@
           <t>Sign on to APC from KPIM</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
           <t>Home (Welcone) page is displayed</t>
@@ -1899,7 +1893,6 @@
           <t>Sign on to APC from KPIM</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
           <t>Home (Welcone) page is displayed</t>
@@ -1922,7 +1915,6 @@
           <t>Sign on to APC from KPIM</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
           <t>Home (Welcone) page is displayed</t>
@@ -1945,7 +1937,6 @@
           <t>Sign on to APC from KPIM</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
           <t>Home (Welcone) page is displayed</t>
@@ -1968,7 +1959,6 @@
           <t>Sign on to APC from KPIM</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
           <t>Home (Welcone) page is displayed</t>
@@ -1991,7 +1981,6 @@
           <t>Sign on to APC from KPIM</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
           <t>Home (Welcone) page is displayed</t>
@@ -2014,7 +2003,6 @@
           <t>Sign on to APC from KPIM</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
           <t>Home (Welcone) page is displayed</t>
@@ -2037,7 +2025,6 @@
           <t>Sign on to APC from KPIM</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
           <t>Home (Welcone) page is displayed</t>
@@ -2060,7 +2047,6 @@
           <t>Sign on to APC from KPIM</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
           <t>Home (Welcone) page is displayed</t>
@@ -2083,7 +2069,6 @@
           <t>Sign on to APC from KPIM</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
         <is>
           <t>Home (Welcone) page is displayed</t>
@@ -2106,7 +2091,6 @@
           <t>Sign on to APC from KPIM</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
           <t>Home (Welcone) page is displayed</t>
@@ -2129,7 +2113,6 @@
           <t>Sign on to APC from KPIM</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
           <t>Home (Welcone) page is displayed</t>
@@ -2152,7 +2135,6 @@
           <t>Sign on to APC from KPIM</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
           <t>Home (Welcone) page is displayed</t>
@@ -2175,7 +2157,6 @@
           <t>Sign on to APC from KPIM</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
         <is>
           <t>Home (Welcone) page is displayed</t>
@@ -2198,7 +2179,6 @@
           <t>Sign on to APC from KPIM</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr">
         <is>
           <t>Home (Welcone) page is displayed</t>
@@ -2221,7 +2201,6 @@
           <t>Sign on to APC from KPIM</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
           <t>Home (Welcone) page is displayed by ID</t>
@@ -2244,7 +2223,6 @@
           <t>Sign on to APC from KPIM</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr">
         <is>
           <t>Home (Welcone) page is displayed</t>
@@ -2267,7 +2245,6 @@
           <t>Sign on to APC from KPIM</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
           <t>Home (Welcone) page is displayed</t>
@@ -2290,7 +2267,6 @@
           <t>Sign on to APC from KPIM</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr">
         <is>
           <t>Home (Welcone) page is displayed by ID</t>
@@ -2313,7 +2289,6 @@
           <t>Sign on to APC from KPIM</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr">
         <is>
           <t>Home (Welcone) page is displayed</t>
@@ -2336,8 +2311,1911 @@
           <t>Sign on to APC from KPIM</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Key</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Summary</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Actions</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Expected Results</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>APC-3433</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 1</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>sample</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>APC-3433</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 1</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>APC-3433</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 1</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>APC-3434</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 2</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>APC-3434</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 2</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>APC-3434</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 2</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>APC-3435</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 3</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>APC-3435</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 3</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>APC-3435</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 3</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>APC-3436</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 4</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>APC-3436</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 4</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>APC-3436</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 4</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>APC-3437</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 5</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>APC-3437</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 5</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>APC-3437</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 5</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>APC-3438</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 6</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>APC-3438</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 6</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>APC-3438</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 6</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>APC-3439</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 7</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>APC-3439</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 7</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>APC-3439</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 7</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>APC-3440</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 8</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed by ID</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>APC-3440</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 8</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>APC-3440</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 8</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>APC-3441</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 9</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed by ID</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>APC-3441</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 9</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>APC-3441</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 9</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Key</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Summary</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Actions</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Expected Results</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>APC-3433</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 1</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>sample</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>APC-3433</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 1</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>APC-3433</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 1</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>APC-3434</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 2</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>APC-3434</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 2</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>APC-3434</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 2</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>APC-3435</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 3</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>APC-3435</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 3</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>APC-3435</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 3</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>APC-3436</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 4</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>APC-3436</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 4</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>APC-3436</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 4</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>APC-3437</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 5</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>APC-3437</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 5</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>APC-3437</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 5</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>APC-3438</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 6</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>APC-3438</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 6</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>APC-3438</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 6</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>APC-3439</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 7</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>APC-3439</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 7</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>APC-3439</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 7</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>APC-3440</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 8</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed by ID</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>APC-3440</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 8</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>APC-3440</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 8</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>APC-3441</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 9</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed by ID</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>APC-3441</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 9</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>APC-3441</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 9</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Key</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Summary</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Actions</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Expected Results</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>APC-3433</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 1</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>sample</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>APC-3433</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 1</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr"/>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>APC-3433</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 1</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr"/>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>APC-3434</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 2</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr"/>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>APC-3434</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 2</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr"/>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>APC-3434</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 2</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr"/>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>APC-3435</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 3</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr"/>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>APC-3435</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 3</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr"/>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>APC-3435</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 3</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr"/>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>APC-3436</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 4</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr"/>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>APC-3436</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 4</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr"/>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>APC-3436</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 4</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr"/>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>APC-3437</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 5</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr"/>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>APC-3437</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 5</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr"/>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>APC-3437</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 5</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr"/>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>APC-3438</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 6</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr"/>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>APC-3438</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 6</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr"/>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>APC-3438</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 6</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr"/>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>APC-3439</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 7</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr"/>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>APC-3439</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 7</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr"/>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>APC-3439</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 7</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr"/>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>APC-3440</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 8</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr"/>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed by ID</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>APC-3440</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 8</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr"/>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>APC-3440</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 8</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr"/>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>APC-3441</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 9</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr"/>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed by ID</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>APC-3441</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 9</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr"/>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Home (Welcone) page is displayed</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>APC-3441</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Claims Search - Summary 9</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Sign on to APC from KPIM</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr"/>
+      <c r="E168" t="inlineStr">
         <is>
           <t>Home (Welcone) page is displayed</t>
         </is>
